--- a/data/themes_5Jun25.xlsx
+++ b/data/themes_5Jun25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienmhp/Desktop/undp/TargetAssessmentReport/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CCBEAD-B89E-2B42-AB04-B7535CD724F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0280C442-6880-AC4D-A8E6-1FAA21560D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17100" yWindow="0" windowWidth="17100" windowHeight="22240" xr2:uid="{0AE8BCE9-D803-FB4B-99E2-B74A89915A04}"/>
   </bookViews>
@@ -282,9 +282,6 @@
     <t>This includes dietary changes, reducing food waste, reducing post-harvest losses, sustainable sourcing and use of resources, supply-chain diversification, improved food processing and retailing, improved energy use in food systems, reducing food loss, and improved supply chain resilience.</t>
   </si>
   <si>
-    <t>This includes technology transfer, education and learning, south-south exchange, knowledge sharing (including traditional knowledge), scientific cooperation and information networks, developing communities of practice and task forces, access and benefit sharing (ABS) under the Nagoya Protocol, R&amp;D and investment in green technologies, institutional strengthening and establishment of emergency response capabilities, and the development of transparent monitoring and reporting systems, and mainstreaming concepts and values related to biodiversity and climate so that people are aware of their importance, and capacitated to deal with their deterioriation.</t>
-  </si>
-  <si>
     <t>This includes halting human-induced extinction of species, controlling invasive alien species, sharing of genetic resources and their digital sequence information to ensure genetic diversity, and reducing human-wildlife conflict, for instance, creating reserves. This also includes ecosystem services and ecosystem-based adaptation across deserts, forests, grasslands, shrublands, tropical rainforests, oceans, coral reefs, lakes, marine coastal ecosystems, rivers, savanna, woodlands, sub-tropical, wetlands, and other biomes.</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Sustainable development and the SDGs</t>
+  </si>
+  <si>
+    <t>This includes technology transfer, education and learning, south-south exchange, knowledge sharing (including traditional knowledge), scientific cooperation and information networks, developing communities of practice and task forces, access and benefit sharing (ABS) under the Nagoya Protocol, R&amp;D and investment in green technologies, institutional strengthening and establishment of emergency response capabilities, and the development of transparent monitoring and reporting systems, and mainstreaming concepts and values related to biodiversity and climate so that people are aware of their importance, and capacitated to deal with their deterioration.</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40CD8B78-D88D-3A4E-BBE5-89026F961131}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -803,7 +805,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -880,7 +882,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -902,7 +904,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
@@ -946,7 +948,7 @@
         <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
@@ -954,7 +956,7 @@
     </row>
     <row r="20" spans="1:3" ht="16">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>31</v>
@@ -1005,26 +1007,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a236eee0-dfe7-41fa-863c-f8b5736ab75b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001577CA56F8CF414FA01735147A342F5E" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15ebec4ab82c4afa1bee2c7efe3711a0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295" xmlns:ns3="a236eee0-dfe7-41fa-863c-f8b5736ab75b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f312e4fff05bdb9aa5c3ccce3cb8bc17" ns2:_="" ns3:_="">
     <xsd:import namespace="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
@@ -1225,26 +1207,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9466BE-8805-4D92-BAFF-AA8763E7468C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
-    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82998C6-F370-45A4-81C6-97C04F6D8157}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a236eee0-dfe7-41fa-863c-f8b5736ab75b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A4D478A-C343-4184-95BC-EA42CAD5BD1B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1261,4 +1244,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82998C6-F370-45A4-81C6-97C04F6D8157}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED9466BE-8805-4D92-BAFF-AA8763E7468C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1c8e9d7b-50c0-4280-bb0d-2b6f794c1295"/>
+    <ds:schemaRef ds:uri="a236eee0-dfe7-41fa-863c-f8b5736ab75b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>